--- a/BuildshopFramework/data/data.xlsx
+++ b/BuildshopFramework/data/data.xlsx
@@ -1,23 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12480" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ProjectCreation" sheetId="2" r:id="rId2"/>
+    <sheet name="Emp-Creation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K17"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Bill Thomas</t>
+  </si>
+  <si>
+    <t>Bill1234</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Sambruce</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>mirandajacob@12</t>
+  </si>
+  <si>
+    <t>Home Owner</t>
+  </si>
+  <si>
+    <t>Tim Garden</t>
+  </si>
+  <si>
+    <t>Timg12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State / Province / Region </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City / Town </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip / Postal Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Description </t>
+  </si>
+  <si>
+    <t>Rainbow Villa</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>anil.k@testyantra.com</t>
+  </si>
+  <si>
+    <t>Jump Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States </t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7392° N </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.9903° W </t>
+  </si>
+  <si>
+    <t>construction of fully furnished villa!!</t>
+  </si>
+  <si>
+    <t>sambruce535@</t>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mike smith</t>
+  </si>
+  <si>
+    <t>ana rikz</t>
+  </si>
+  <si>
+    <t>marry john</t>
+  </si>
+  <si>
+    <t>mikesmith12@gmail.com</t>
+  </si>
+  <si>
+    <t>anarikz12@gmail.com</t>
+  </si>
+  <si>
+    <t>marryjohn12@gmail.com</t>
+  </si>
+  <si>
+    <t>mikesmith123</t>
+  </si>
+  <si>
+    <t>anarikz123</t>
+  </si>
+  <si>
+    <t>marryjohn123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +219,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -100,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +516,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>7894567895</v>
+      </c>
+      <c r="E2">
+        <v>7598465284</v>
+      </c>
+      <c r="F2">
+        <v>9876543216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>80123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>